--- a/outputfile.xlsx
+++ b/outputfile.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>k....CH5i4@gmail.com</t>
+          <t>k....UcIc1@gmail.com</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>l....xG1Aw@gmail.cmm</t>
+          <t>l....wu94g@gmail.cmm</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>g....ClESV@gmail.com</t>
+          <t>g....J5c2k@gmail.com</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>k....F9CnB@gmail.cfm</t>
+          <t>k....vAuB2@gmail.cfm</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>b....doxfx@gmail.cmm</t>
+          <t>b....1u7gL@gmail.cmm</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>l....McpQj@gmail.cfm</t>
+          <t>l....XohxC@gmail.cfm</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j....TTAeH@gmail.com</t>
+          <t>j....vVkMT@gmail.com</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>b....ykuWu@gmail.cfm</t>
+          <t>b....Hen93@gmail.cfm</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>l....tFE6h@gmail.cmm</t>
+          <t>l....56sk2@gmail.cmm</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>s....Rbaal@gmail.com</t>
+          <t>s....BDmGM@gmail.com</t>
         </is>
       </c>
       <c r="L11" t="n">

--- a/outputfile.xlsx
+++ b/outputfile.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>k....UcIc1@gmail.com</t>
+          <t>k....6gZV3@gmail.com</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>l....wu94g@gmail.cmm</t>
+          <t>l....bdkY2@gmail.cmm</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>g....J5c2k@gmail.com</t>
+          <t>g....CGMTm@gmail.com</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>k....vAuB2@gmail.cfm</t>
+          <t>k....Fa9xD@gmail.cfm</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>b....1u7gL@gmail.cmm</t>
+          <t>b....8CjtF@gmail.cmm</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>l....XohxC@gmail.cfm</t>
+          <t>l....wTaLs@gmail.cfm</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j....vVkMT@gmail.com</t>
+          <t>j....R9F4S@gmail.com</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>b....Hen93@gmail.cfm</t>
+          <t>b....3EhnN@gmail.cfm</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>l....56sk2@gmail.cmm</t>
+          <t>l....zmXw5@gmail.cmm</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>s....BDmGM@gmail.com</t>
+          <t>s....Z4wh6@gmail.com</t>
         </is>
       </c>
       <c r="L11" t="n">
